--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId4"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
   <si>
     <t>物品ID</t>
   </si>
@@ -380,28 +383,90 @@
   </si>
   <si>
     <t>014.png</t>
+  </si>
+  <si>
+    <t>蝶恋花</t>
+  </si>
+  <si>
+    <t>601.png</t>
+  </si>
+  <si>
+    <t>头环</t>
+  </si>
+  <si>
+    <t>凤舞九天</t>
+  </si>
+  <si>
+    <t>602.png</t>
+  </si>
+  <si>
+    <t>欢天喜地</t>
+  </si>
+  <si>
+    <t>603.png</t>
+  </si>
+  <si>
+    <t>吉祥如意</t>
+  </si>
+  <si>
+    <t>604.png</t>
+  </si>
+  <si>
+    <t>金玉良缘</t>
+  </si>
+  <si>
+    <t>605.png</t>
+  </si>
+  <si>
+    <t>镜花水月</t>
+  </si>
+  <si>
+    <t>606.png</t>
+  </si>
+  <si>
+    <t>鱼跃龙门</t>
+  </si>
+  <si>
+    <t>607.png</t>
+  </si>
+  <si>
+    <t>玫瑰花香</t>
+  </si>
+  <si>
+    <t>608.png</t>
+  </si>
+  <si>
+    <t>云水谣</t>
+  </si>
+  <si>
+    <t>609.png</t>
+  </si>
+  <si>
+    <t>浪漫七夕</t>
+  </si>
+  <si>
+    <t>610.png</t>
+  </si>
+  <si>
+    <t>元宵快乐</t>
+  </si>
+  <si>
+    <t>611.png</t>
+  </si>
+  <si>
+    <t>新春快乐</t>
+  </si>
+  <si>
+    <t>612.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
@@ -409,6 +474,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -419,6 +485,13 @@
       <sz val="11"/>
       <color indexed="13"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -510,76 +583,126 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -705,7 +828,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -714,7 +837,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -723,7 +846,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -797,7 +920,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -805,7 +928,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -824,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,9 +1198,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1092,7 +1221,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1100,7 +1229,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1119,7 +1248,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1274,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1326,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1352,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1378,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1404,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1430,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1482,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,9 +1495,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1382,7 +1517,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1401,7 +1536,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1431,7 +1566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1457,7 +1592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1483,7 +1618,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1509,7 +1644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1535,7 +1670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1561,7 +1696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,7 +1722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1613,7 +1748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1639,7 +1774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,78 +1787,86 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.57812" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.2891" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5781" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.2891" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:6" ht="15.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8">
@@ -1732,18 +1875,18 @@
       <c r="D3" s="8">
         <v>999</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="8">
@@ -1752,18 +1895,18 @@
       <c r="D4" s="8">
         <v>999</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="9">
+      <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8">
@@ -1772,18 +1915,18 @@
       <c r="D5" s="8">
         <v>999</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="9">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:6" ht="15.95" customHeight="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="8">
@@ -1792,18 +1935,18 @@
       <c r="D6" s="8">
         <v>999</v>
       </c>
-      <c r="E6" t="s" s="9">
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s" s="9">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:6" ht="15.95" customHeight="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="8">
@@ -1812,18 +1955,18 @@
       <c r="D7" s="8">
         <v>999</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s" s="9">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:6" ht="15.95" customHeight="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="8">
@@ -1832,18 +1975,18 @@
       <c r="D8" s="8">
         <v>999</v>
       </c>
-      <c r="E8" t="s" s="9">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s" s="9">
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:6" ht="15.95" customHeight="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="8">
@@ -1852,18 +1995,18 @@
       <c r="D9" s="8">
         <v>999</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s" s="9">
+      <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:6" ht="15.95" customHeight="1">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="8">
@@ -1872,18 +2015,18 @@
       <c r="D10" s="8">
         <v>999</v>
       </c>
-      <c r="E10" t="s" s="9">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s" s="9">
+      <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" spans="1:6" ht="15.95" customHeight="1">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="8">
@@ -1892,18 +2035,18 @@
       <c r="D11" s="8">
         <v>999</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s" s="9">
+      <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:6" ht="15.95" customHeight="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="8">
@@ -1912,18 +2055,18 @@
       <c r="D12" s="8">
         <v>999</v>
       </c>
-      <c r="E12" t="s" s="9">
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s" s="9">
+      <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" spans="1:6" ht="15.95" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="8">
@@ -1932,18 +2075,18 @@
       <c r="D13" s="8">
         <v>999</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s" s="9">
+      <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" spans="1:6" ht="15.95" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="8">
@@ -1952,18 +2095,18 @@
       <c r="D14" s="8">
         <v>999</v>
       </c>
-      <c r="E14" t="s" s="9">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s" s="9">
+      <c r="F14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="8">
@@ -1972,18 +2115,18 @@
       <c r="D15" s="8">
         <v>999</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s" s="9">
+      <c r="F15" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" spans="1:6" ht="15.95" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="8">
@@ -1992,18 +2135,18 @@
       <c r="D16" s="8">
         <v>999</v>
       </c>
-      <c r="E16" t="s" s="9">
+      <c r="E16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F16" t="s" s="9">
+      <c r="F16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" spans="1:6" ht="15.95" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="8">
@@ -2012,18 +2155,18 @@
       <c r="D17" s="8">
         <v>999</v>
       </c>
-      <c r="E17" t="s" s="9">
+      <c r="E17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s" s="9">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" spans="1:6" ht="15.95" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="8">
@@ -2032,18 +2175,18 @@
       <c r="D18" s="8">
         <v>999</v>
       </c>
-      <c r="E18" t="s" s="9">
+      <c r="E18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F18" t="s" s="9">
+      <c r="F18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:6" ht="15.95" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="8">
@@ -2052,18 +2195,18 @@
       <c r="D19" s="8">
         <v>999</v>
       </c>
-      <c r="E19" t="s" s="9">
+      <c r="E19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F19" t="s" s="9">
+      <c r="F19" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:6" ht="15.95" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="8">
@@ -2072,18 +2215,18 @@
       <c r="D20" s="8">
         <v>999</v>
       </c>
-      <c r="E20" t="s" s="9">
+      <c r="E20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F20" t="s" s="9">
+      <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:6" ht="15.95" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="8">
@@ -2092,18 +2235,18 @@
       <c r="D21" s="8">
         <v>999</v>
       </c>
-      <c r="E21" t="s" s="9">
+      <c r="E21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F21" t="s" s="9">
+      <c r="F21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:6" ht="15.95" customHeight="1">
       <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="8">
@@ -2112,18 +2255,18 @@
       <c r="D22" s="8">
         <v>999</v>
       </c>
-      <c r="E22" t="s" s="9">
+      <c r="E22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F22" t="s" s="9">
+      <c r="F22" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:6" ht="15.95" customHeight="1">
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="8">
@@ -2132,18 +2275,18 @@
       <c r="D23" s="8">
         <v>999</v>
       </c>
-      <c r="E23" t="s" s="9">
+      <c r="E23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s" s="9">
+      <c r="F23" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:6" ht="15.95" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" t="s" s="11">
+      <c r="B24" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="8">
@@ -2152,18 +2295,18 @@
       <c r="D24" s="8">
         <v>999</v>
       </c>
-      <c r="E24" t="s" s="9">
+      <c r="E24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F24" t="s" s="9">
+      <c r="F24" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:6" ht="15.95" customHeight="1">
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" t="s" s="11">
+      <c r="B25" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="8">
@@ -2172,18 +2315,18 @@
       <c r="D25" s="8">
         <v>999</v>
       </c>
-      <c r="E25" t="s" s="9">
+      <c r="E25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F25" t="s" s="9">
+      <c r="F25" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" spans="1:6" ht="15.95" customHeight="1">
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="8">
@@ -2192,18 +2335,18 @@
       <c r="D26" s="8">
         <v>999</v>
       </c>
-      <c r="E26" t="s" s="9">
+      <c r="E26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F26" t="s" s="9">
+      <c r="F26" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:6" ht="15.95" customHeight="1">
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="8">
@@ -2212,18 +2355,18 @@
       <c r="D27" s="8">
         <v>999</v>
       </c>
-      <c r="E27" t="s" s="9">
+      <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F27" t="s" s="9">
+      <c r="F27" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:6" ht="15.95" customHeight="1">
       <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="8">
@@ -2232,18 +2375,18 @@
       <c r="D28" s="8">
         <v>999</v>
       </c>
-      <c r="E28" t="s" s="9">
+      <c r="E28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F28" t="s" s="9">
+      <c r="F28" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" spans="1:6" ht="15.95" customHeight="1">
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="8">
@@ -2252,18 +2395,18 @@
       <c r="D29" s="8">
         <v>999</v>
       </c>
-      <c r="E29" t="s" s="9">
+      <c r="E29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F29" t="s" s="9">
+      <c r="F29" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:6" ht="15.95" customHeight="1">
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="8">
@@ -2272,18 +2415,18 @@
       <c r="D30" s="8">
         <v>999</v>
       </c>
-      <c r="E30" t="s" s="9">
+      <c r="E30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F30" t="s" s="9">
+      <c r="F30" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:6" ht="15.95" customHeight="1">
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="8">
@@ -2292,18 +2435,18 @@
       <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="E31" t="s" s="9">
+      <c r="E31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F31" t="s" s="9">
+      <c r="F31" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" spans="1:6" ht="15.95" customHeight="1">
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="8">
@@ -2312,18 +2455,18 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" t="s" s="9">
+      <c r="E32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F32" t="s" s="9">
+      <c r="F32" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" spans="1:6" ht="15.95" customHeight="1">
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="8">
@@ -2332,18 +2475,18 @@
       <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" t="s" s="9">
+      <c r="E33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F33" t="s" s="9">
+      <c r="F33" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" spans="1:6" ht="15.95" customHeight="1">
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="8">
@@ -2352,18 +2495,18 @@
       <c r="D34" s="8">
         <v>1</v>
       </c>
-      <c r="E34" t="s" s="9">
+      <c r="E34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F34" t="s" s="9">
+      <c r="F34" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" spans="1:6" ht="15.95" customHeight="1">
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="8">
@@ -2372,18 +2515,18 @@
       <c r="D35" s="8">
         <v>1</v>
       </c>
-      <c r="E35" t="s" s="9">
+      <c r="E35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F35" t="s" s="9">
+      <c r="F35" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" spans="1:6" ht="15.95" customHeight="1">
       <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="8">
@@ -2392,18 +2535,18 @@
       <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" t="s" s="9">
+      <c r="E36" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F36" t="s" s="9">
+      <c r="F36" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" spans="1:6" ht="15.95" customHeight="1">
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="8">
@@ -2412,18 +2555,18 @@
       <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" t="s" s="9">
+      <c r="E37" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F37" t="s" s="9">
+      <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" spans="1:6" ht="15.95" customHeight="1">
       <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="8">
@@ -2432,18 +2575,18 @@
       <c r="D38" s="8">
         <v>1</v>
       </c>
-      <c r="E38" t="s" s="9">
+      <c r="E38" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F38" t="s" s="9">
+      <c r="F38" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" spans="1:6" ht="15.95" customHeight="1">
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="8">
@@ -2452,18 +2595,18 @@
       <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="E39" t="s" s="9">
+      <c r="E39" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F39" t="s" s="9">
+      <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" spans="1:6" ht="15.95" customHeight="1">
       <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="8">
@@ -2472,18 +2615,18 @@
       <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" t="s" s="9">
+      <c r="E40" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F40" t="s" s="9">
+      <c r="F40" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" spans="1:6" ht="15.95" customHeight="1">
       <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="8">
@@ -2492,18 +2635,18 @@
       <c r="D41" s="8">
         <v>1</v>
       </c>
-      <c r="E41" t="s" s="9">
+      <c r="E41" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F41" t="s" s="9">
+      <c r="F41" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" spans="1:6" ht="15.95" customHeight="1">
       <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="8">
@@ -2512,18 +2655,18 @@
       <c r="D42" s="8">
         <v>1</v>
       </c>
-      <c r="E42" t="s" s="9">
+      <c r="E42" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F42" t="s" s="9">
+      <c r="F42" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" spans="1:6" ht="15.95" customHeight="1">
       <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="8">
@@ -2532,18 +2675,18 @@
       <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E43" t="s" s="9">
+      <c r="E43" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F43" t="s" s="9">
+      <c r="F43" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" spans="1:6" ht="15.95" customHeight="1">
       <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="8">
@@ -2552,18 +2695,18 @@
       <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" t="s" s="9">
+      <c r="E44" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F44" t="s" s="9">
+      <c r="F44" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" spans="1:6" ht="15.95" customHeight="1">
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="8">
@@ -2572,18 +2715,18 @@
       <c r="D45" s="8">
         <v>1</v>
       </c>
-      <c r="E45" t="s" s="9">
+      <c r="E45" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F45" t="s" s="9">
+      <c r="F45" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" spans="1:6" ht="15.95" customHeight="1">
       <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="8">
@@ -2592,18 +2735,18 @@
       <c r="D46" s="8">
         <v>1</v>
       </c>
-      <c r="E46" t="s" s="9">
+      <c r="E46" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F46" t="s" s="9">
+      <c r="F46" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" spans="1:6" ht="15.95" customHeight="1">
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C47" s="8">
@@ -2612,18 +2755,18 @@
       <c r="D47" s="8">
         <v>1</v>
       </c>
-      <c r="E47" t="s" s="9">
+      <c r="E47" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F47" t="s" s="9">
+      <c r="F47" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" spans="1:6" ht="15.95" customHeight="1">
       <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C48" s="8">
@@ -2632,18 +2775,18 @@
       <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" t="s" s="9">
+      <c r="E48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F48" t="s" s="9">
+      <c r="F48" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" spans="1:6" ht="15.95" customHeight="1">
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="8">
@@ -2652,18 +2795,18 @@
       <c r="D49" s="8">
         <v>1</v>
       </c>
-      <c r="E49" t="s" s="9">
+      <c r="E49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F49" t="s" s="9">
+      <c r="F49" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" spans="1:6" ht="15.95" customHeight="1">
       <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="8">
@@ -2672,18 +2815,18 @@
       <c r="D50" s="8">
         <v>1</v>
       </c>
-      <c r="E50" t="s" s="9">
+      <c r="E50" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F50" t="s" s="9">
+      <c r="F50" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" spans="1:6" ht="15.95" customHeight="1">
       <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="8">
@@ -2692,18 +2835,18 @@
       <c r="D51" s="8">
         <v>1</v>
       </c>
-      <c r="E51" t="s" s="9">
+      <c r="E51" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F51" t="s" s="9">
+      <c r="F51" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" spans="1:6" ht="15.95" customHeight="1">
       <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="8">
@@ -2712,18 +2855,18 @@
       <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" t="s" s="9">
+      <c r="E52" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F52" t="s" s="9">
+      <c r="F52" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" spans="1:6" ht="15.95" customHeight="1">
       <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C53" s="8">
@@ -2732,18 +2875,18 @@
       <c r="D53" s="8">
         <v>1</v>
       </c>
-      <c r="E53" t="s" s="9">
+      <c r="E53" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F53" t="s" s="9">
+      <c r="F53" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" spans="1:6" ht="15.95" customHeight="1">
       <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" t="s" s="7">
+      <c r="B54" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C54" s="8">
@@ -2752,18 +2895,18 @@
       <c r="D54" s="8">
         <v>1</v>
       </c>
-      <c r="E54" t="s" s="9">
+      <c r="E54" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F54" t="s" s="9">
+      <c r="F54" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" spans="1:6" ht="15.95" customHeight="1">
       <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C55" s="8">
@@ -2772,18 +2915,18 @@
       <c r="D55" s="8">
         <v>1</v>
       </c>
-      <c r="E55" t="s" s="9">
+      <c r="E55" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F55" t="s" s="9">
+      <c r="F55" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" spans="1:6" ht="15.95" customHeight="1">
       <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" t="s" s="7">
+      <c r="B56" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C56" s="8">
@@ -2792,16 +2935,257 @@
       <c r="D56" s="8">
         <v>1</v>
       </c>
-      <c r="E56" t="s" s="9">
+      <c r="E56" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F56" t="s" s="9">
+      <c r="F56" s="9" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="57" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>601</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="8">
+        <v>6</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A58" s="6">
+        <v>602</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="8">
+        <v>6</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A59" s="6">
+        <v>603</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="8">
+        <v>6</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A60" s="6">
+        <v>604</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="8">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A61" s="6">
+        <v>605</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="8">
+        <v>6</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>606</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="8">
+        <v>6</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A63" s="6">
+        <v>607</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="8">
+        <v>6</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A64" s="6">
+        <v>608</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="8">
+        <v>6</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>609</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="8">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A66" s="6">
+        <v>610</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="8">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>611</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="8">
+        <v>6</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A68" s="6">
+        <v>612</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="8">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>物品ID</t>
   </si>
@@ -28,6 +25,18 @@
     <t>堆叠上限</t>
   </si>
   <si>
+    <t>木宝箱开出概率</t>
+  </si>
+  <si>
+    <t>木宝箱开出数量</t>
+  </si>
+  <si>
+    <t>豪华宝箱开出概率</t>
+  </si>
+  <si>
+    <t>豪华宝箱开出数量</t>
+  </si>
+  <si>
     <t>物品图标</t>
   </si>
   <si>
@@ -46,6 +55,18 @@
     <t>stack</t>
   </si>
   <si>
+    <t>boxrate1</t>
+  </si>
+  <si>
+    <t>boxcnt1</t>
+  </si>
+  <si>
+    <t>boxrate2</t>
+  </si>
+  <si>
+    <t>boxcnt2</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
@@ -55,6 +76,12 @@
     <t>兽魂精魄</t>
   </si>
   <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
     <t>shouhunjingpo.png</t>
   </si>
   <si>
@@ -64,10 +91,19 @@
     <t>补魂石</t>
   </si>
   <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
     <t>buhunshi.png</t>
   </si>
   <si>
     <t>水之珠</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
   <si>
     <t>shuizhizhu.png</t>
@@ -464,9 +500,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
@@ -474,7 +523,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
     </font>
     <font>
       <sz val="11"/>
@@ -483,18 +536,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="13"/>
+      <color indexed="15"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,12 +555,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -535,6 +587,43 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="11"/>
@@ -571,6 +660,32 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -581,128 +696,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF006100"/>
-      <rgbColor rgb="FFC6EFCE"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff006100"/>
+      <rgbColor rgb="ffc6efce"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff9c0006"/>
+      <rgbColor rgb="ffffc7ce"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -828,7 +973,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -837,7 +982,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -846,7 +991,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -920,7 +1065,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -928,7 +1073,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -947,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1107,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,15 +1343,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1221,7 +1360,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1229,7 +1368,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1248,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,15 +1634,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1517,7 +1650,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1536,7 +1669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1566,7 +1699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1592,7 +1725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1618,7 +1751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1644,7 +1777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1670,7 +1803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1696,7 +1829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1722,7 +1855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1748,7 +1881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1774,7 +1907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1787,1405 +1920,1912 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV68"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.57812" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2891" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5781" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5781" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5781" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5781" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5781" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.2891" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="G1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I1" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J1" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B2" t="s" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C2" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="D2" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="15.95" customHeight="1">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15">
         <v>999</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="16">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="G3" s="16">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="18">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="15.95" customHeight="1">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>999</v>
+      </c>
+      <c r="E4" s="16">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="G4" s="16">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s" s="17">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="15.95" customHeight="1">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>999</v>
+      </c>
+      <c r="E5" s="16">
+        <v>10</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s" s="18">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="15.95" customHeight="1">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>999</v>
+      </c>
+      <c r="E6" s="16">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="15.95" customHeight="1">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>999</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>12</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="15.95" customHeight="1">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15">
+        <v>999</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="15.95" customHeight="1">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15">
+        <v>999</v>
+      </c>
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>10</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="18">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="15.95" customHeight="1">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15">
+        <v>999</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>10</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="15.95" customHeight="1">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15">
+        <v>999</v>
+      </c>
+      <c r="E11" s="16">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s" s="18">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15.95" customHeight="1">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15">
+        <v>999</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>10</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="15.95" customHeight="1">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>999</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>10</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s" s="18">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="15.95" customHeight="1">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="13">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15">
+        <v>999</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>10</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s" s="18">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B15" t="s" s="20">
+        <v>50</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
+        <v>999</v>
+      </c>
+      <c r="E15" s="16">
+        <v>4</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>10</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s" s="18">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="15.95" customHeight="1">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A4" s="6">
+      <c r="B16" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15">
+        <v>999</v>
+      </c>
+      <c r="E16" s="16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s" s="18">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="15.95" customHeight="1">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="13">
+        <v>54</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15">
+        <v>999</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>10</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s" s="18">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="15.95" customHeight="1">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s" s="13">
+        <v>56</v>
+      </c>
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="15">
+        <v>999</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>10</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s" s="18">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="15.95" customHeight="1">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s" s="13">
+        <v>58</v>
+      </c>
+      <c r="C19" s="14">
+        <v>4</v>
+      </c>
+      <c r="D19" s="15">
+        <v>999</v>
+      </c>
+      <c r="E19" s="16">
+        <v>4</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>10</v>
+      </c>
+      <c r="H19" s="16">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="15.95" customHeight="1">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15">
+        <v>999</v>
+      </c>
+      <c r="E20" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <v>10</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s" s="18">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" ht="15.95" customHeight="1">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="13">
+        <v>62</v>
+      </c>
+      <c r="C21" s="14">
+        <v>4</v>
+      </c>
+      <c r="D21" s="15">
         <v>999</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A5" s="6">
+      <c r="E21" s="16">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>10</v>
+      </c>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s" s="18">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="15.95" customHeight="1">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
+      <c r="D22" s="15">
+        <v>999</v>
+      </c>
+      <c r="E22" s="16">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>10</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s" s="18">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" ht="15.95" customHeight="1">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15">
+        <v>999</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>10</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="15.95" customHeight="1">
+      <c r="A24" s="12">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s" s="21">
+        <v>68</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4</v>
+      </c>
+      <c r="D24" s="15">
+        <v>999</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>10</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s" s="18">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="15.95" customHeight="1">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="21">
+        <v>70</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4</v>
+      </c>
+      <c r="D25" s="15">
+        <v>999</v>
+      </c>
+      <c r="E25" s="16">
+        <v>2</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
+        <v>10</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s" s="18">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="15.95" customHeight="1">
+      <c r="A26" s="12">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s" s="13">
+        <v>72</v>
+      </c>
+      <c r="C26" s="14">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15">
+        <v>999</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16">
+        <v>10</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s" s="18">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="15.95" customHeight="1">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s" s="13">
+        <v>74</v>
+      </c>
+      <c r="C27" s="14">
+        <v>4</v>
+      </c>
+      <c r="D27" s="15">
+        <v>999</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16">
+        <v>4</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s" s="18">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="15.95" customHeight="1">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s" s="13">
+        <v>76</v>
+      </c>
+      <c r="C28" s="14">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15">
+        <v>999</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
+        <v>4</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s" s="18">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" ht="15.95" customHeight="1">
+      <c r="A29" s="12">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s" s="13">
+        <v>78</v>
+      </c>
+      <c r="C29" s="14">
+        <v>4</v>
+      </c>
+      <c r="D29" s="15">
+        <v>999</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="15.95" customHeight="1">
+      <c r="A30" s="12">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="13">
+        <v>80</v>
+      </c>
+      <c r="C30" s="14">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15">
+        <v>999</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" ht="15.95" customHeight="1">
+      <c r="A31" s="12">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s" s="13">
+        <v>82</v>
+      </c>
+      <c r="C31" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>999</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>999</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>999</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A8" s="6">
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" t="s" s="19">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" ht="15.95" customHeight="1">
+      <c r="A32" s="12">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s" s="13">
+        <v>85</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" t="s" s="19">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" ht="15.95" customHeight="1">
+      <c r="A33" s="12">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s" s="13">
+        <v>87</v>
+      </c>
+      <c r="C33" s="14">
+        <v>3</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" t="s" s="19">
+        <v>88</v>
+      </c>
+      <c r="J33" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" ht="15.95" customHeight="1">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="13">
+        <v>89</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" t="s" s="19">
+        <v>90</v>
+      </c>
+      <c r="J34" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" ht="15.95" customHeight="1">
+      <c r="A35" s="12">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s" s="13">
+        <v>91</v>
+      </c>
+      <c r="C35" s="14">
+        <v>3</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" t="s" s="19">
+        <v>92</v>
+      </c>
+      <c r="J35" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" ht="15.95" customHeight="1">
+      <c r="A36" s="12">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s" s="13">
+        <v>93</v>
+      </c>
+      <c r="C36" s="14">
+        <v>3</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" t="s" s="19">
+        <v>94</v>
+      </c>
+      <c r="J36" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" ht="15.95" customHeight="1">
+      <c r="A37" s="12">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="13">
+        <v>95</v>
+      </c>
+      <c r="C37" s="14">
+        <v>3</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" t="s" s="19">
+        <v>96</v>
+      </c>
+      <c r="J37" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" ht="15.95" customHeight="1">
+      <c r="A38" s="12">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s" s="13">
+        <v>97</v>
+      </c>
+      <c r="C38" s="14">
+        <v>3</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" t="s" s="19">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" ht="15.95" customHeight="1">
+      <c r="A39" s="12">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s" s="13">
+        <v>99</v>
+      </c>
+      <c r="C39" s="14">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" t="s" s="19">
+        <v>100</v>
+      </c>
+      <c r="J39" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" ht="15.95" customHeight="1">
+      <c r="A40" s="12">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s" s="13">
+        <v>101</v>
+      </c>
+      <c r="C40" s="14">
+        <v>3</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" t="s" s="19">
+        <v>102</v>
+      </c>
+      <c r="J40" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" ht="15.95" customHeight="1">
+      <c r="A41" s="12">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s" s="13">
+        <v>103</v>
+      </c>
+      <c r="C41" s="14">
+        <v>3</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" t="s" s="19">
+        <v>104</v>
+      </c>
+      <c r="J41" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" ht="15.95" customHeight="1">
+      <c r="A42" s="12">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s" s="13">
+        <v>105</v>
+      </c>
+      <c r="C42" s="14">
+        <v>3</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" t="s" s="19">
+        <v>106</v>
+      </c>
+      <c r="J42" t="s" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" ht="15.95" customHeight="1">
+      <c r="A43" s="12">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>107</v>
+      </c>
+      <c r="C43" s="14">
+        <v>2</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" t="s" s="19">
+        <v>108</v>
+      </c>
+      <c r="J43" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" ht="15.95" customHeight="1">
+      <c r="A44" s="12">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s" s="13">
+        <v>110</v>
+      </c>
+      <c r="C44" s="14">
+        <v>2</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" t="s" s="19">
+        <v>111</v>
+      </c>
+      <c r="J44" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" ht="15.95" customHeight="1">
+      <c r="A45" s="12">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s" s="13">
+        <v>112</v>
+      </c>
+      <c r="C45" s="14">
+        <v>2</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="J45" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" ht="15.95" customHeight="1">
+      <c r="A46" s="12">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s" s="13">
+        <v>114</v>
+      </c>
+      <c r="C46" s="14">
+        <v>2</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" t="s" s="19">
+        <v>115</v>
+      </c>
+      <c r="J46" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" ht="15.95" customHeight="1">
+      <c r="A47" s="12">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s" s="13">
+        <v>116</v>
+      </c>
+      <c r="C47" s="14">
+        <v>2</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" t="s" s="19">
+        <v>117</v>
+      </c>
+      <c r="J47" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" ht="15.95" customHeight="1">
+      <c r="A48" s="12">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s" s="13">
+        <v>118</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2</v>
+      </c>
+      <c r="D48" s="14">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" t="s" s="19">
+        <v>119</v>
+      </c>
+      <c r="J48" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" ht="15.95" customHeight="1">
+      <c r="A49" s="12">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s" s="13">
+        <v>120</v>
+      </c>
+      <c r="C49" s="14">
+        <v>2</v>
+      </c>
+      <c r="D49" s="14">
+        <v>1</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" t="s" s="19">
+        <v>121</v>
+      </c>
+      <c r="J49" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" ht="15.95" customHeight="1">
+      <c r="A50" s="12">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s" s="13">
+        <v>122</v>
+      </c>
+      <c r="C50" s="14">
+        <v>2</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" t="s" s="19">
+        <v>123</v>
+      </c>
+      <c r="J50" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" ht="15.95" customHeight="1">
+      <c r="A51" s="12">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s" s="13">
+        <v>124</v>
+      </c>
+      <c r="C51" s="14">
+        <v>2</v>
+      </c>
+      <c r="D51" s="14">
+        <v>1</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" t="s" s="19">
+        <v>125</v>
+      </c>
+      <c r="J51" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" ht="15.95" customHeight="1">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s" s="13">
+        <v>126</v>
+      </c>
+      <c r="C52" s="14">
+        <v>2</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" t="s" s="19">
+        <v>127</v>
+      </c>
+      <c r="J52" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" ht="15.95" customHeight="1">
+      <c r="A53" s="12">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s" s="13">
+        <v>128</v>
+      </c>
+      <c r="C53" s="14">
+        <v>2</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" t="s" s="19">
+        <v>129</v>
+      </c>
+      <c r="J53" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" ht="15.95" customHeight="1">
+      <c r="A54" s="12">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s" s="13">
+        <v>130</v>
+      </c>
+      <c r="C54" s="14">
+        <v>2</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" t="s" s="19">
+        <v>131</v>
+      </c>
+      <c r="J54" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" ht="15.95" customHeight="1">
+      <c r="A55" s="12">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s" s="13">
+        <v>132</v>
+      </c>
+      <c r="C55" s="14">
+        <v>2</v>
+      </c>
+      <c r="D55" s="14">
+        <v>1</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" t="s" s="19">
+        <v>133</v>
+      </c>
+      <c r="J55" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" ht="15.95" customHeight="1">
+      <c r="A56" s="12">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="C56" s="14">
+        <v>2</v>
+      </c>
+      <c r="D56" s="14">
+        <v>1</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" t="s" s="19">
+        <v>135</v>
+      </c>
+      <c r="J56" t="s" s="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" customHeight="1">
+      <c r="A57" s="12">
+        <v>601</v>
+      </c>
+      <c r="B57" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="C57" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8">
-        <v>999</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8">
-        <v>999</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8">
-        <v>999</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <v>999</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8">
-        <v>999</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8">
-        <v>999</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
-        <v>999</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8">
-        <v>999</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8">
-        <v>999</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8">
-        <v>999</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A18" s="6">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="8">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8">
-        <v>999</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A19" s="6">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8">
-        <v>999</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A20" s="6">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8">
-        <v>999</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A21" s="6">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="8">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8">
-        <v>999</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A22" s="6">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="8">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8">
-        <v>999</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A23" s="6">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8">
-        <v>999</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A24" s="6">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="8">
-        <v>4</v>
-      </c>
-      <c r="D24" s="8">
-        <v>999</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A25" s="6">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="8">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8">
-        <v>999</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="8">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8">
-        <v>999</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A27" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="8">
-        <v>4</v>
-      </c>
-      <c r="D27" s="8">
-        <v>999</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="8">
-        <v>4</v>
-      </c>
-      <c r="D28" s="8">
-        <v>999</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A29" s="6">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="8">
-        <v>4</v>
-      </c>
-      <c r="D29" s="8">
-        <v>999</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A30" s="6">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="8">
-        <v>4</v>
-      </c>
-      <c r="D30" s="8">
-        <v>999</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="8">
-        <v>3</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A32" s="6">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="8">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A33" s="6">
-        <v>31</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="8">
-        <v>3</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="8">
-        <v>3</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="8">
-        <v>3</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A36" s="6">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A37" s="6">
-        <v>35</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A38" s="6">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="8">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A39" s="6">
-        <v>37</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="8">
-        <v>3</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A40" s="6">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="8">
-        <v>3</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A41" s="6">
-        <v>39</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="8">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A42" s="6">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="8">
-        <v>3</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A43" s="6">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A44" s="6">
-        <v>42</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A45" s="6">
-        <v>43</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2</v>
-      </c>
-      <c r="D45" s="8">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A46" s="6">
-        <v>44</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="8">
-        <v>2</v>
-      </c>
-      <c r="D46" s="8">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A47" s="6">
-        <v>45</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A48" s="6">
-        <v>46</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="8">
-        <v>2</v>
-      </c>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A49" s="6">
-        <v>47</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2</v>
-      </c>
-      <c r="D49" s="8">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A50" s="6">
-        <v>48</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A51" s="6">
-        <v>49</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A52" s="6">
-        <v>50</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="8">
-        <v>2</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A53" s="6">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A54" s="6">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="8">
-        <v>2</v>
-      </c>
-      <c r="D54" s="8">
-        <v>1</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A55" s="6">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="8">
-        <v>2</v>
-      </c>
-      <c r="D55" s="8">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.95" customHeight="1">
-      <c r="A56" s="6">
-        <v>54</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="8">
-        <v>2</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="6">
-        <v>601</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="8">
+      <c r="D57" s="14">
+        <v>1</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" t="s" s="19">
+        <v>137</v>
+      </c>
+      <c r="J57" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1">
+      <c r="A58" s="12">
+        <v>602</v>
+      </c>
+      <c r="B58" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="C58" s="14">
         <v>6</v>
       </c>
-      <c r="D57" s="8">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="6">
-        <v>602</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="D58" s="14">
+        <v>1</v>
+      </c>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" t="s" s="19">
+        <v>140</v>
+      </c>
+      <c r="J58" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1">
+      <c r="A59" s="12">
+        <v>603</v>
+      </c>
+      <c r="B59" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="C59" s="14">
         <v>6</v>
       </c>
-      <c r="D58" s="8">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A59" s="6">
-        <v>603</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" t="s" s="19">
+        <v>142</v>
+      </c>
+      <c r="J59" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="12">
+        <v>604</v>
+      </c>
+      <c r="B60" t="s" s="13">
+        <v>143</v>
+      </c>
+      <c r="C60" s="14">
         <v>6</v>
       </c>
-      <c r="D59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A60" s="6">
-        <v>604</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="D60" s="14">
+        <v>1</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" t="s" s="19">
+        <v>144</v>
+      </c>
+      <c r="J60" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="12">
+        <v>605</v>
+      </c>
+      <c r="B61" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="C61" s="14">
         <v>6</v>
       </c>
-      <c r="D60" s="8">
-        <v>1</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A61" s="6">
-        <v>605</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="8">
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" t="s" s="19">
+        <v>146</v>
+      </c>
+      <c r="J61" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="A62" s="12">
+        <v>606</v>
+      </c>
+      <c r="B62" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="C62" s="14">
         <v>6</v>
       </c>
-      <c r="D61" s="8">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A62" s="6">
-        <v>606</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="D62" s="14">
+        <v>1</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" t="s" s="19">
+        <v>148</v>
+      </c>
+      <c r="J62" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="A63" s="12">
+        <v>607</v>
+      </c>
+      <c r="B63" t="s" s="13">
+        <v>149</v>
+      </c>
+      <c r="C63" s="14">
         <v>6</v>
       </c>
-      <c r="D62" s="8">
-        <v>1</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A63" s="6">
-        <v>607</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="D63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" t="s" s="19">
+        <v>150</v>
+      </c>
+      <c r="J63" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="A64" s="12">
+        <v>608</v>
+      </c>
+      <c r="B64" t="s" s="13">
+        <v>151</v>
+      </c>
+      <c r="C64" s="14">
         <v>6</v>
       </c>
-      <c r="D63" s="8">
-        <v>1</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A64" s="6">
-        <v>608</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="D64" s="14">
+        <v>1</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" t="s" s="19">
+        <v>152</v>
+      </c>
+      <c r="J64" t="s" s="19">
         <v>138</v>
       </c>
-      <c r="C64" s="8">
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" s="12">
+        <v>609</v>
+      </c>
+      <c r="B65" t="s" s="13">
+        <v>153</v>
+      </c>
+      <c r="C65" s="14">
         <v>6</v>
       </c>
-      <c r="D64" s="8">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A65" s="6">
-        <v>609</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="D65" s="14">
+        <v>1</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" t="s" s="19">
+        <v>154</v>
+      </c>
+      <c r="J65" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1">
+      <c r="A66" s="12">
+        <v>610</v>
+      </c>
+      <c r="B66" t="s" s="13">
+        <v>155</v>
+      </c>
+      <c r="C66" s="14">
         <v>6</v>
       </c>
-      <c r="D65" s="8">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A66" s="6">
-        <v>610</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="D66" s="14">
+        <v>1</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" t="s" s="19">
+        <v>156</v>
+      </c>
+      <c r="J66" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="A67" s="12">
+        <v>611</v>
+      </c>
+      <c r="B67" t="s" s="13">
+        <v>157</v>
+      </c>
+      <c r="C67" s="14">
         <v>6</v>
       </c>
-      <c r="D66" s="8">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A67" s="6">
-        <v>611</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="8">
+      <c r="D67" s="14">
+        <v>1</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" t="s" s="19">
+        <v>158</v>
+      </c>
+      <c r="J67" t="s" s="19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="A68" s="12">
+        <v>612</v>
+      </c>
+      <c r="B68" t="s" s="13">
+        <v>159</v>
+      </c>
+      <c r="C68" s="14">
         <v>6</v>
       </c>
-      <c r="D67" s="8">
-        <v>1</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A68" s="6">
-        <v>612</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="8">
-        <v>6</v>
-      </c>
-      <c r="D68" s="8">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>125</v>
+      <c r="D68" s="14">
+        <v>1</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" t="s" s="19">
+        <v>160</v>
+      </c>
+      <c r="J68" t="s" s="19">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>物品ID</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>612.png</t>
+  </si>
+  <si>
+    <t>木宝箱</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3823,6 +3829,46 @@
         <v>138</v>
       </c>
     </row>
+    <row r="69" ht="13.5" customHeight="1">
+      <c r="A69" s="12">
+        <v>701</v>
+      </c>
+      <c r="B69" t="s" s="13">
+        <v>161</v>
+      </c>
+      <c r="C69" s="14">
+        <v>7</v>
+      </c>
+      <c r="D69" s="14">
+        <v>999</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" ht="13.5" customHeight="1">
+      <c r="A70" s="12">
+        <v>702</v>
+      </c>
+      <c r="B70" t="s" s="13">
+        <v>162</v>
+      </c>
+      <c r="C70" s="14">
+        <v>7</v>
+      </c>
+      <c r="D70" s="14">
+        <v>999</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>物品ID</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>入场劵</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3869,6 +3872,26 @@
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
     </row>
+    <row r="71" ht="13.5" customHeight="1">
+      <c r="A71" s="12">
+        <v>1001</v>
+      </c>
+      <c r="B71" t="s" s="13">
+        <v>163</v>
+      </c>
+      <c r="C71" s="14">
+        <v>8</v>
+      </c>
+      <c r="D71" s="14">
+        <v>999</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
